--- a/test_workbook/work3_test/work3-2-22/エビデンス/BOPエラー/製造品目詳細一覧_work.xlsx
+++ b/test_workbook/work3_test/work3-2-22/エビデンス/BOPエラー/製造品目詳細一覧_work.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106761FF-8829-4DB1-92C2-933AD4192294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5098621F-748E-472A-BAE1-B85EC076FDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2305F618-C2E9-4EFD-9D6B-0102C830D009}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{761F2A20-5D65-4C2D-A13E-45A21BCE0205}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>品目CD</t>
   </si>
@@ -50,28 +50,16 @@
     <t>製造場所CD</t>
   </si>
   <si>
-    <t>P1002</t>
-  </si>
-  <si>
-    <t>部品B</t>
+    <t>P4001</t>
+  </si>
+  <si>
+    <t>部品I</t>
   </si>
   <si>
     <t>$D_PS_PurchasePart</t>
   </si>
   <si>
-    <t>LOC2</t>
-  </si>
-  <si>
-    <t>P1004</t>
-  </si>
-  <si>
-    <t>部品D</t>
-  </si>
-  <si>
-    <t>$D_PS_PhantomPart</t>
-  </si>
-  <si>
-    <t>LOC5</t>
+    <t>LOC30</t>
   </si>
   <si>
     <t>製造LT</t>
@@ -460,9 +448,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3781AC-9C4D-43A2-932E-7E7799B161E7}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED240B8-416A-4140-95BA-7FBABDA8DE51}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,10 +469,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -501,19 +488,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
